--- a/7/1/1/4/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/4/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1524,7 +1524,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>91817</v>
+        <v>91807</v>
       </c>
       <c r="C14">
         <v>66753</v>
@@ -1554,19 +1554,19 @@
         <v>8645</v>
       </c>
       <c r="L14">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="M14">
-        <v>39026</v>
+        <v>39029</v>
       </c>
       <c r="N14">
-        <v>32971</v>
+        <v>32973</v>
       </c>
       <c r="O14">
         <v>2005</v>
       </c>
       <c r="P14">
-        <v>17374</v>
+        <v>17377</v>
       </c>
       <c r="Q14">
         <v>13592</v>
@@ -1593,7 +1593,7 @@
         <v>4484</v>
       </c>
       <c r="Y14">
-        <v>93897</v>
+        <v>93889</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>89099</v>
+        <v>89089</v>
       </c>
       <c r="C15">
         <v>68838</v>
@@ -1631,19 +1631,19 @@
         <v>7023</v>
       </c>
       <c r="L15">
-        <v>-1496</v>
+        <v>-1506</v>
       </c>
       <c r="M15">
-        <v>35704</v>
+        <v>35706</v>
       </c>
       <c r="N15">
-        <v>30645</v>
+        <v>30647</v>
       </c>
       <c r="O15">
         <v>2105</v>
       </c>
       <c r="P15">
-        <v>17442</v>
+        <v>17444</v>
       </c>
       <c r="Q15">
         <v>11098</v>
@@ -1670,7 +1670,7 @@
         <v>4522</v>
       </c>
       <c r="Y15">
-        <v>96477</v>
+        <v>96470</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1678,7 +1678,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>104263</v>
+        <v>104251</v>
       </c>
       <c r="C16">
         <v>78539</v>
@@ -1708,19 +1708,19 @@
         <v>8881</v>
       </c>
       <c r="L16">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="M16">
-        <v>42082</v>
+        <v>42085</v>
       </c>
       <c r="N16">
-        <v>36119</v>
+        <v>36122</v>
       </c>
       <c r="O16">
         <v>2256</v>
       </c>
       <c r="P16">
-        <v>22597</v>
+        <v>22600</v>
       </c>
       <c r="Q16">
         <v>11267</v>
@@ -1747,7 +1747,7 @@
         <v>4895</v>
       </c>
       <c r="Y16">
-        <v>111422</v>
+        <v>111413</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1755,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>117804</v>
+        <v>117792</v>
       </c>
       <c r="C17">
         <v>87892</v>
@@ -1785,19 +1785,19 @@
         <v>10912</v>
       </c>
       <c r="L17">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="M17">
-        <v>46109</v>
+        <v>46112</v>
       </c>
       <c r="N17">
-        <v>39396</v>
+        <v>39399</v>
       </c>
       <c r="O17">
         <v>2398</v>
       </c>
       <c r="P17">
-        <v>23798</v>
+        <v>23802</v>
       </c>
       <c r="Q17">
         <v>13199</v>
@@ -1824,7 +1824,7 @@
         <v>5898</v>
       </c>
       <c r="Y17">
-        <v>121890</v>
+        <v>121881</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1832,7 +1832,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>130007</v>
+        <v>129994</v>
       </c>
       <c r="C18">
         <v>95614</v>
@@ -1862,19 +1862,19 @@
         <v>12570</v>
       </c>
       <c r="L18">
-        <v>2181</v>
+        <v>2168</v>
       </c>
       <c r="M18">
-        <v>44284</v>
+        <v>44287</v>
       </c>
       <c r="N18">
-        <v>37878</v>
+        <v>37881</v>
       </c>
       <c r="O18">
         <v>2452</v>
       </c>
       <c r="P18">
-        <v>22432</v>
+        <v>22435</v>
       </c>
       <c r="Q18">
         <v>12994</v>
@@ -1901,7 +1901,7 @@
         <v>5634</v>
       </c>
       <c r="Y18">
-        <v>129914</v>
+        <v>129904</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1909,7 +1909,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>138704</v>
+        <v>138695</v>
       </c>
       <c r="C19">
         <v>103337</v>
@@ -1939,19 +1939,19 @@
         <v>12707</v>
       </c>
       <c r="L19">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="M19">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="N19">
-        <v>37990</v>
+        <v>37989</v>
       </c>
       <c r="O19">
         <v>2751</v>
       </c>
       <c r="P19">
-        <v>21679</v>
+        <v>21678</v>
       </c>
       <c r="Q19">
         <v>13560</v>
@@ -1978,7 +1978,7 @@
         <v>6034</v>
       </c>
       <c r="Y19">
-        <v>137925</v>
+        <v>137915</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1986,7 +1986,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>147161</v>
+        <v>147150</v>
       </c>
       <c r="C20">
         <v>112653</v>
@@ -2016,13 +2016,13 @@
         <v>13106</v>
       </c>
       <c r="L20">
-        <v>-913</v>
+        <v>-925</v>
       </c>
       <c r="M20">
-        <v>49222</v>
+        <v>49221</v>
       </c>
       <c r="N20">
-        <v>42807</v>
+        <v>42806</v>
       </c>
       <c r="O20">
         <v>3167</v>
@@ -2055,7 +2055,7 @@
         <v>6336</v>
       </c>
       <c r="Y20">
-        <v>148591</v>
+        <v>148579</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2063,7 +2063,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>159851</v>
+        <v>159837</v>
       </c>
       <c r="C21">
         <v>121953</v>
@@ -2084,7 +2084,7 @@
         <v>20732</v>
       </c>
       <c r="I21">
-        <v>37910</v>
+        <v>37909</v>
       </c>
       <c r="J21">
         <v>24120</v>
@@ -2093,10 +2093,10 @@
         <v>13789</v>
       </c>
       <c r="L21">
-        <v>-11</v>
+        <v>-25</v>
       </c>
       <c r="M21">
-        <v>46882</v>
+        <v>46883</v>
       </c>
       <c r="N21">
         <v>40425</v>
@@ -2132,7 +2132,7 @@
         <v>6519</v>
       </c>
       <c r="Y21">
-        <v>159513</v>
+        <v>159498</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2140,7 +2140,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>168355</v>
+        <v>168337</v>
       </c>
       <c r="C22">
         <v>130847</v>
@@ -2170,7 +2170,7 @@
         <v>13688</v>
       </c>
       <c r="L22">
-        <v>-982</v>
+        <v>-999</v>
       </c>
       <c r="M22">
         <v>47620</v>
@@ -2209,7 +2209,7 @@
         <v>6716</v>
       </c>
       <c r="Y22">
-        <v>169285</v>
+        <v>169267</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2217,7 +2217,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>177787</v>
+        <v>177770</v>
       </c>
       <c r="C23">
         <v>139347</v>
@@ -2238,28 +2238,28 @@
         <v>25363</v>
       </c>
       <c r="I23">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="J23">
-        <v>24245</v>
+        <v>24246</v>
       </c>
       <c r="K23">
         <v>13526</v>
       </c>
       <c r="L23">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="M23">
-        <v>50995</v>
+        <v>50994</v>
       </c>
       <c r="N23">
-        <v>44479</v>
+        <v>44477</v>
       </c>
       <c r="O23">
         <v>3746</v>
       </c>
       <c r="P23">
-        <v>23922</v>
+        <v>23921</v>
       </c>
       <c r="Q23">
         <v>16811</v>
@@ -2286,7 +2286,7 @@
         <v>6784</v>
       </c>
       <c r="Y23">
-        <v>179859</v>
+        <v>179841</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2294,7 +2294,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>191685</v>
+        <v>191669</v>
       </c>
       <c r="C24">
         <v>149073</v>
@@ -2315,28 +2315,28 @@
         <v>27459</v>
       </c>
       <c r="I24">
-        <v>40945</v>
+        <v>40946</v>
       </c>
       <c r="J24">
-        <v>25949</v>
+        <v>25951</v>
       </c>
       <c r="K24">
         <v>14995</v>
       </c>
       <c r="L24">
-        <v>1667</v>
+        <v>1649</v>
       </c>
       <c r="M24">
-        <v>54382</v>
+        <v>54381</v>
       </c>
       <c r="N24">
-        <v>47812</v>
+        <v>47810</v>
       </c>
       <c r="O24">
         <v>4076</v>
       </c>
       <c r="P24">
-        <v>25086</v>
+        <v>25084</v>
       </c>
       <c r="Q24">
         <v>18650</v>
@@ -2363,7 +2363,7 @@
         <v>7160</v>
       </c>
       <c r="Y24">
-        <v>191082</v>
+        <v>191064</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2371,7 +2371,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>198136</v>
+        <v>198120</v>
       </c>
       <c r="C25">
         <v>152857</v>
@@ -2392,22 +2392,22 @@
         <v>28729</v>
       </c>
       <c r="I25">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="J25">
-        <v>28557</v>
+        <v>28560</v>
       </c>
       <c r="K25">
         <v>16421</v>
       </c>
       <c r="L25">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M25">
         <v>55025</v>
       </c>
       <c r="N25">
-        <v>48303</v>
+        <v>48302</v>
       </c>
       <c r="O25">
         <v>4714</v>
@@ -2440,7 +2440,7 @@
         <v>7716</v>
       </c>
       <c r="Y25">
-        <v>196503</v>
+        <v>196486</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2448,7 +2448,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>189670</v>
+        <v>189646</v>
       </c>
       <c r="C26">
         <v>150235</v>
@@ -2469,28 +2469,28 @@
         <v>31807</v>
       </c>
       <c r="I26">
-        <v>41857</v>
+        <v>41859</v>
       </c>
       <c r="J26">
-        <v>26060</v>
+        <v>26062</v>
       </c>
       <c r="K26">
         <v>15797</v>
       </c>
       <c r="L26">
-        <v>-2422</v>
+        <v>-2448</v>
       </c>
       <c r="M26">
-        <v>63080</v>
+        <v>63073</v>
       </c>
       <c r="N26">
-        <v>57889</v>
+        <v>57882</v>
       </c>
       <c r="O26">
         <v>5034</v>
       </c>
       <c r="P26">
-        <v>32779</v>
+        <v>32772</v>
       </c>
       <c r="Q26">
         <v>20076</v>
@@ -2517,7 +2517,7 @@
         <v>6096</v>
       </c>
       <c r="Y26">
-        <v>200021</v>
+        <v>199990</v>
       </c>
     </row>
   </sheetData>
